--- a/data/pravno/zakoni/Kazneni-zakon.pdf.hwaifs/tables/py/gmft/df.tables-7.xlsx
+++ b/data/pravno/zakoni/Kazneni-zakon.pdf.hwaifs/tables/py/gmft/df.tables-7.xlsx
@@ -551,12 +551,12 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>kaznit će se kaznom zatvora najmanje pet godina. Teško ubojstvo</t>
+          <t>će se kaznom zatvora najmanje pet godina. Teško ubojstvo</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Tko ubije drugoga,</t>
+          <t>Tko ubije drugoga, kaznit</t>
         </is>
       </c>
     </row>
